--- a/CDE_ID_detective_revamp/out/SAMPLE_larger_sprint_2020-12-16_2024-12-09_enhanced.xlsx
+++ b/CDE_ID_detective_revamp/out/SAMPLE_larger_sprint_2020-12-16_2024-12-09_enhanced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmaefos\Code Stuffs\CDE_detective\CDE_ID_detective_revamp\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC994E9D-6DA7-4514-B144-601B33D5DE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22BE4F7-8F7A-4AFB-BC7E-443A6DF538E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="6345" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38505" yWindow="6465" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3872,9 +3872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V429"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3888,6 +3888,7 @@
     <col min="8" max="8" width="20.53125" customWidth="1"/>
     <col min="9" max="9" width="15.73046875" customWidth="1"/>
     <col min="10" max="10" width="21.19921875" customWidth="1"/>
+    <col min="22" max="22" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
